--- a/data/api.xlsx
+++ b/data/api.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>posts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加文章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,9 +109,6 @@
     <t>增加2</t>
   </si>
   <si>
-    <t>增加3</t>
-  </si>
-  <si>
     <t>{"userId": 3,"title": "title3","body": "this is a writer 3"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,23 +125,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"userId": 4,"title": "title4","body": "this is a writer 4"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'code': 201, 'msg': {'userId': 4, 'title': 'title4', 'body': 'this is a writer 4', 'id': 101}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'用例ID': 1.0, '模块': '增加文章', '接口名称': '增加1', 'url': 'posts', '前置条件': '', '请求类型': 'post', '请求参数类型': 'json', '请求参数': '{"userId": 2,"title": "title2","body": "this is a writer 2"}', '预期结果': "{'code': 201, 'msg': {'userId': 2, 'title': 'title2', 'body': 'this is a writer 2', 'id': 101}}", '实际结果': '', '备注': '', '是否运行': 'y', 'headers': '', 'cookies': '', 'status_code': '', '数据库验证': ''}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'用例ID': 2.0, '模块': '增加文章', '接口名称': '增加2', 'url': 'posts', '前置条件': '', '请求类型': 'post', '请求参数类型': 'json', '请求参数': '{"userId": 3,"title": "title3","body": "this is a writer 3"}', '预期结果': "{'code': 201, 'msg': {'userId': 3, 'title': 'title3', 'body': 'this is a writer 3', 'id': 101}}", '实际结果': '', '备注': '', '是否运行': 'y', 'headers': '', 'cookies': '', 'status_code': '', '数据库验证': ''}</t>
+    <t>id-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id-001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -558,21 +543,21 @@
         <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -584,30 +569,33 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
+      <c r="O2">
+        <v>201</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -616,45 +604,16 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
+      <c r="O3">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/api.xlsx
+++ b/data/api.xlsx
@@ -90,41 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>posts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>posts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加2</t>
-  </si>
-  <si>
-    <t>{"userId": 3,"title": "title3","body": "this is a writer 3"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userId": 2,"title": "title2","body": "this is a writer 2"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'code': 201, 'msg': {'userId': 2, 'title': 'title2', 'body': 'this is a writer 2', 'id': 101}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'code': 201, 'msg': {'userId': 3, 'title': 'title3', 'body': 'this is a writer 3', 'id': 101}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +99,42 @@
   </si>
   <si>
     <t>id-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录alan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录alan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username": "alan1","password": "111111"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username": "alan2","password": "2222222"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,9 +178,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -486,7 +490,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -543,24 +547,24 @@
         <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -569,33 +573,33 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="O2">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -604,10 +608,10 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
